--- a/biology/Écologie/Indigène_(écologie)/Indigène_(écologie).xlsx
+++ b/biology/Écologie/Indigène_(écologie)/Indigène_(écologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indig%C3%A8ne_(%C3%A9cologie)</t>
+          <t>Indigène_(écologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biogéographie, une espèce, un taxon ou une population est définie comme indigène (ou autochtone) à une région donnée ou à un écosystème si sa présence dans cette région est le résultat de processus naturels, sans intervention humaine. 
 Chaque organisme sauvage (par opposition à un organisme domestiqué) a sa propre distribution dans laquelle il est considéré comme indigène. À l'extérieur de cette zone de distribution naturelle, une espèce peut être introduite par l'activité humaine ; c'est alors une espèce introduite.
-En botanique, l'indigénat caractérise un taxon, une population ou un groupement végétal dont la présence dans le lieu où il se trouve aujourd'hui est tellement ancienne (notion d'archéophyte) qu'on ne peut présupposer de son caractère natif ou introduit[1]. 
+En botanique, l'indigénat caractérise un taxon, une population ou un groupement végétal dont la présence dans le lieu où il se trouve aujourd'hui est tellement ancienne (notion d'archéophyte) qu'on ne peut présupposer de son caractère natif ou introduit. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indig%C3%A8ne_(%C3%A9cologie)</t>
+          <t>Indigène_(écologie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Indigénat et endémisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indigénat et l'endémisme sont des notions très distinctes qui ne doivent pas être confondues. En biologie et en écologie, une espèce (ou un autre taxon) est dite indigène d'une région quand elle est présente naturellement dans cette région. Une espèce (ou un autre taxon) est dite endémique d'une région délimitée quand elle n'est présente naturellement que dans cette région, n'étant présente nulle part ailleurs de manière naturelle. Une espèce endémique est donc strictement restreinte à la région précisée, alors qu'une espèce indigène d'une région peut aussi l'être dans d'autres régions.
 Exemples :
